--- a/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/Entrega_1_RepositorioSemantico/Alergias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD834A5-600E-BB46-8811-13AD5064512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898DE0C-C8B3-8F43-BF1D-A92324F48FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="1200" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALergias" sheetId="1" r:id="rId1"/>
-    <sheet name="BRCategoriaAgenteAlergiasReacoe" sheetId="10" r:id="rId2"/>
-    <sheet name="BRGrauCertezaAlergia" sheetId="8" r:id="rId3"/>
-    <sheet name="BRTipoIntoleranciaAlergiaBRTipo" sheetId="9" r:id="rId4"/>
-    <sheet name="StatusClinicoAlergia" sheetId="7" r:id="rId5"/>
+    <sheet name="absent-unknown" sheetId="12" r:id="rId2"/>
+    <sheet name="BRCategoriaAgenteAlergiasReacoe" sheetId="10" r:id="rId3"/>
+    <sheet name="BRGrauCertezaAlergia" sheetId="8" r:id="rId4"/>
+    <sheet name="BRTipoIntoleranciaAlergiaBRTipo" sheetId="9" r:id="rId5"/>
+    <sheet name="StatusClinicoAlergia" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>RNDS</t>
   </si>
@@ -271,13 +272,151 @@
   </si>
   <si>
     <t>BRCategoriaAgenteAlergiasReacoesAdversas-1.0</t>
+  </si>
+  <si>
+    <t>No known procedures</t>
+  </si>
+  <si>
+    <t>No known medications</t>
+  </si>
+  <si>
+    <t>No known immunizations</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/CodeSystem/absent-unknown-uv-ips</t>
+  </si>
+  <si>
+    <t>no-allergy-info</t>
+  </si>
+  <si>
+    <t>No information about allergies</t>
+  </si>
+  <si>
+    <t>There is no information available regarding the subject's allergy conditions.</t>
+  </si>
+  <si>
+    <t>no-known-allergies</t>
+  </si>
+  <si>
+    <t>No known allergies</t>
+  </si>
+  <si>
+    <t>The subject has no known allergy conditions.</t>
+  </si>
+  <si>
+    <t>  no-known-medication-allergies</t>
+  </si>
+  <si>
+    <t>No known medication allergies</t>
+  </si>
+  <si>
+    <t>The subject has no known medication allergy conditions.</t>
+  </si>
+  <si>
+    <t>  no-known-environmental-allergies</t>
+  </si>
+  <si>
+    <t>No known environmental allergies</t>
+  </si>
+  <si>
+    <t>The subject has no known environmental allergy conditions.</t>
+  </si>
+  <si>
+    <t>  no-known-food-allergies</t>
+  </si>
+  <si>
+    <t>No known food allergies</t>
+  </si>
+  <si>
+    <t>The subject has no known food allergy conditions.</t>
+  </si>
+  <si>
+    <t>no-device-info</t>
+  </si>
+  <si>
+    <t>No information about devices</t>
+  </si>
+  <si>
+    <t>There is no information available regarding implanted or external devices for the subject.</t>
+  </si>
+  <si>
+    <t>no-known-devices</t>
+  </si>
+  <si>
+    <t>No known devices in use</t>
+  </si>
+  <si>
+    <t>There are no devices known to be implanted in or used by the subject that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
+  </si>
+  <si>
+    <t>no-immunization-info</t>
+  </si>
+  <si>
+    <t>No information about immunizations</t>
+  </si>
+  <si>
+    <t>The subject's history of previous immunizations is not known.</t>
+  </si>
+  <si>
+    <t>no-known-immunizations</t>
+  </si>
+  <si>
+    <t>There is no history of previous immunizations for the subject that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
+  </si>
+  <si>
+    <t>no-medication-info</t>
+  </si>
+  <si>
+    <t>No information about medications</t>
+  </si>
+  <si>
+    <t>There is no information available about the subject's medication use or administration.</t>
+  </si>
+  <si>
+    <t>no-known-medications</t>
+  </si>
+  <si>
+    <t>There are no medications for the subject that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
+  </si>
+  <si>
+    <t>no-problem-info</t>
+  </si>
+  <si>
+    <t>No information about problems</t>
+  </si>
+  <si>
+    <t>There is no information available about the subject's health problems or disabilities.</t>
+  </si>
+  <si>
+    <t>no-known-problems</t>
+  </si>
+  <si>
+    <t>No known problems</t>
+  </si>
+  <si>
+    <t>The subject is not known to have any health problems or disabilities that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
+  </si>
+  <si>
+    <t>no-procedure-info</t>
+  </si>
+  <si>
+    <t>No information about past history of procedures</t>
+  </si>
+  <si>
+    <t>There is no information available about the subject's past history of procedures.</t>
+  </si>
+  <si>
+    <t>no-known-procedures</t>
+  </si>
+  <si>
+    <t>The subject has no history of procedures that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -369,6 +508,25 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF005C00"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -471,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -502,6 +660,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -949,7 +1111,9 @@
       <c r="J4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
@@ -979,8 +1143,12 @@
       <c r="I5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
@@ -1010,8 +1178,12 @@
       <c r="I6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -1041,8 +1213,12 @@
       <c r="I7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
@@ -1072,8 +1248,12 @@
       <c r="I8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
@@ -1103,8 +1283,12 @@
       <c r="I9" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
@@ -1144,7 +1328,7 @@
       <c r="F11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="15" t="s">
@@ -1184,7 +1368,9 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="8"/>
@@ -1227,13 +1413,259 @@
     <hyperlink ref="G7" r:id="rId9" xr:uid="{0BCD6E6D-EFEB-E842-A5EB-D471C2820D4B}"/>
     <hyperlink ref="A8" r:id="rId10" xr:uid="{EA949196-069D-6C46-AF65-317EA8734F77}"/>
     <hyperlink ref="A9" r:id="rId11" xr:uid="{7FDF6F92-C7FD-B14F-8A30-255692D0FC2D}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{1FB924AD-1C13-C247-A903-E33A59E35643}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{4794E8FF-98EB-7241-A58C-377C42ED4D58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED9EEB-E96D-B446-BA90-67D4AC039178}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>2</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>1</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>1</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CC84CE-BDFA-FD40-A728-DF34D78E7F01}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1253,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577BB3F7-BBE5-9F47-B707-795195E55494}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1315,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD26306-BC35-3F40-8E4C-B07CB2A950D9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1370,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F458C60-8EB1-8843-99D7-4B996CDC286D}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898DE0C-C8B3-8F43-BF1D-A92324F48FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7050D-E097-EA4D-9CF5-0D649A95747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1200" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="1040" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALergias" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1274,7 +1274,7 @@
       <c r="F9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -1415,9 +1415,10 @@
     <hyperlink ref="A9" r:id="rId11" xr:uid="{7FDF6F92-C7FD-B14F-8A30-255692D0FC2D}"/>
     <hyperlink ref="G11" r:id="rId12" xr:uid="{1FB924AD-1C13-C247-A903-E33A59E35643}"/>
     <hyperlink ref="G13" r:id="rId13" xr:uid="{4794E8FF-98EB-7241-A58C-377C42ED4D58}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{9719F490-0B79-DE42-B18C-A1B2E8A2FF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7050D-E097-EA4D-9CF5-0D649A95747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808111FE-8EDE-254F-94C7-84F74149B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1040" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="2840" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALergias" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>RNDS</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t>The subject has no history of procedures that have to be reported in this record. This can mean either that there are none known, or that those known are not relevant for the purpose of this record.</t>
+  </si>
+  <si>
+    <t>Carga ConceptMap</t>
+  </si>
+  <si>
+    <t>BRMedDRA-GPS  OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS-BRMedDRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE </t>
+  </si>
+  <si>
+    <t>BRAlergenosCBARA-GPS OK</t>
   </si>
 </sst>
 </file>
@@ -579,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -624,12 +639,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -664,6 +690,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,10 +1017,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1008,10 +1035,11 @@
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="10" width="26.5" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1026,7 +1054,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1075,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1079,8 +1107,11 @@
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="L3" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1309,7 +1340,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
@@ -1339,8 +1370,14 @@
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="L11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
@@ -1349,17 +1386,26 @@
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="I12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1422,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1416,9 +1462,10 @@
     <hyperlink ref="G11" r:id="rId12" xr:uid="{1FB924AD-1C13-C247-A903-E33A59E35643}"/>
     <hyperlink ref="G13" r:id="rId13" xr:uid="{4794E8FF-98EB-7241-A58C-377C42ED4D58}"/>
     <hyperlink ref="G9" r:id="rId14" xr:uid="{9719F490-0B79-DE42-B18C-A1B2E8A2FF8E}"/>
+    <hyperlink ref="G12" r:id="rId15" xr:uid="{B66B26F9-DEF2-9E46-882A-5DD262490E1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808111FE-8EDE-254F-94C7-84F74149B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787033EF-3C74-5B43-96D6-037C8C10DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2840" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="3360" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALergias" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
   <si>
     <t>RNDS</t>
   </si>
@@ -91,12 +91,6 @@
     <t>0..1</t>
   </si>
   <si>
-    <t>ConceptMap/BRStatusClinicoAlergia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.saude.gov.br/fhir4/ValueSet/BRStatusClinicoAlergia  </t>
-  </si>
-  <si>
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRGrauCertezaAlergiasReacoesAdversas-1.0</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-verification</t>
   </si>
   <si>
-    <t>ConceptMap/BRGrauCertezaAlergia</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>http://hl7.org/fhir/ValueSet/BRTipoIntoleranciaAlergia</t>
   </si>
   <si>
-    <t>ConceptMap/BRTipoIntoleranciaAlergia</t>
-  </si>
-  <si>
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRCategoriaAgenteAlergiasReacoesAdversas-1.0</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality</t>
   </si>
   <si>
-    <t>ConceptMap/BRCriticidadeAlergiasReacoesAdversas</t>
-  </si>
-  <si>
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRAlergenos-1.0</t>
   </si>
   <si>
@@ -175,15 +160,9 @@
     <t>ConceptMap/iBRReacoesAdversasMedDRA-1.0</t>
   </si>
   <si>
-    <t>ConceptMap/BRCategoriaAgenteAlergiasReacoesAdversas</t>
-  </si>
-  <si>
     <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRAlergenosCBARA</t>
   </si>
   <si>
-    <t>ConceptMap/BRAlergenosCBARA</t>
-  </si>
-  <si>
     <t>Lvl</t>
   </si>
   <si>
@@ -421,10 +400,35 @@
     <t xml:space="preserve">GPS-BRMedDRA  </t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE </t>
-  </si>
-  <si>
-    <t>BRAlergenosCBARA-GPS OK</t>
+    <t xml:space="preserve">Tradução do valueset HL7 </t>
+  </si>
+  <si>
+    <t>Versão e Release OK</t>
+  </si>
+  <si>
+    <t>HL7</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/ValueSet/allergyintolerance-clinical </t>
+  </si>
+  <si>
+    <t>MS usa o valueSet HL7</t>
+  </si>
+  <si>
+    <t>Usa o Value Set do HL7 traduzido na collection do MS</t>
+  </si>
+  <si>
+    <t> http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-uv-ips</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-uv-ips Inclui os conceitos de dois valuesets: Import all the codes that are contained in http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-substance-condition-uv-ips
+Import all the codes that are contained in http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-allergies-uv-ips</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRAlergenos-1.0   inclui conceitos de http://www.saude.gov.br/fhir/r4/CodeSystem/BRAlergenosCBARA ; http://www.saude.gov.br/fhir/r4/CodeSystem/BRImunobiologico;  http://www.saude.gov.br/fhir/r4/CodeSystem/BRMedicamento</t>
   </si>
 </sst>
 </file>
@@ -655,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -691,6 +695,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1017,10 +1028,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1030,31 +1041,33 @@
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="26.5" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="7" max="9" width="84.1640625" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1068,14 +1081,16 @@
       <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1098,22 +1113,30 @@
         <v>4</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="N3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="13" t="b">
         <v>1</v>
@@ -1133,22 +1156,31 @@
       <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="13" t="b">
         <v>1</v>
@@ -1157,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>16</v>
@@ -1166,24 +1198,33 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="13" t="b">
         <v>1</v>
@@ -1192,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>16</v>
@@ -1201,59 +1242,81 @@
         <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="B7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="13" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="13" t="b">
         <v>1</v>
@@ -1262,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
@@ -1271,62 +1334,74 @@
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>16</v>
@@ -1334,138 +1409,169 @@
       <c r="F10" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="J12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" location="'ConceptMapimmunization-status'!A1" display="ConceptMap/immunization-status" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H5" location="'ConceptMapvaccine-code'!A1" display="ConceptMap/immunization-vaccine-code" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="A11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H11" location="'ConceptMapimmunization-report-o'!A1" display="ConceptMap/immunization-report-origin" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J11" location="'ConceptMapimmunization-report-o'!A1" display="ConceptMap/immunization-report-origin" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{2A58AAB1-4A59-0F48-9D30-575ED2E5B5BD}"/>
     <hyperlink ref="G6" r:id="rId7" xr:uid="{14F43581-3A95-014B-9AC3-63605CD94CC8}"/>
     <hyperlink ref="A7" r:id="rId8" xr:uid="{68C6870C-6D03-AA43-A982-162028F9EDF1}"/>
     <hyperlink ref="G7" r:id="rId9" xr:uid="{0BCD6E6D-EFEB-E842-A5EB-D471C2820D4B}"/>
     <hyperlink ref="A8" r:id="rId10" xr:uid="{EA949196-069D-6C46-AF65-317EA8734F77}"/>
     <hyperlink ref="A9" r:id="rId11" xr:uid="{7FDF6F92-C7FD-B14F-8A30-255692D0FC2D}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{1FB924AD-1C13-C247-A903-E33A59E35643}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{4794E8FF-98EB-7241-A58C-377C42ED4D58}"/>
-    <hyperlink ref="G9" r:id="rId14" xr:uid="{9719F490-0B79-DE42-B18C-A1B2E8A2FF8E}"/>
-    <hyperlink ref="G12" r:id="rId15" xr:uid="{B66B26F9-DEF2-9E46-882A-5DD262490E1C}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{9719F490-0B79-DE42-B18C-A1B2E8A2FF8E}"/>
+    <hyperlink ref="G10" r:id="rId13" display="http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-uv-ips" xr:uid="{7FDA013E-6A26-1A44-8B42-C9A2AA79AC6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1481,21 +1587,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1503,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1517,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1531,13 +1637,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1545,13 +1651,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1559,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1573,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1587,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1601,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1615,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1629,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1643,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1657,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1671,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1685,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1699,13 +1805,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1745,41 +1851,41 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1787,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1807,42 +1913,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1862,21 +1968,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1884,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1898,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1912,13 +2018,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/Modelo lógicoAlergiaIPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787033EF-3C74-5B43-96D6-037C8C10DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D219F9-2788-A74E-940C-A68A12E3AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="3360" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALergias" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>RNDS</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRAlergenos-1.0   inclui conceitos de http://www.saude.gov.br/fhir/r4/CodeSystem/BRAlergenosCBARA ; http://www.saude.gov.br/fhir/r4/CodeSystem/BRImunobiologico;  http://www.saude.gov.br/fhir/r4/CodeSystem/BRMedicamento</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-snomed-ct-ips-free-set</t>
+  </si>
+  <si>
+    <t>Binding adicional para o elemento  code</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -695,10 +701,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1030,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1060,8 +1064,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1168,7 +1172,7 @@
       <c r="M4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>120</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -1212,7 +1216,7 @@
       <c r="M5" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>120</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -1258,13 +1262,13 @@
       <c r="M6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>120</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1307,10 +1311,10 @@
       <c r="N7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1376,10 +1380,10 @@
       <c r="G9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="31" t="s">
         <v>129</v>
       </c>
       <c r="J9" s="16" t="s">
@@ -1439,7 +1443,7 @@
       <c r="F11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15" t="s">
@@ -1493,8 +1497,8 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="18"/>
       <c r="K13" s="16"/>
       <c r="L13" s="8"/>
@@ -1538,6 +1542,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>12</v>
@@ -1546,7 +1558,7 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" t="s">
+      <c r="G19" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1569,9 +1581,10 @@
     <hyperlink ref="A9" r:id="rId11" xr:uid="{7FDF6F92-C7FD-B14F-8A30-255692D0FC2D}"/>
     <hyperlink ref="G9" r:id="rId12" xr:uid="{9719F490-0B79-DE42-B18C-A1B2E8A2FF8E}"/>
     <hyperlink ref="G10" r:id="rId13" display="http://hl7.org/fhir/uv/ips/ValueSet/allergy-intolerance-uv-ips" xr:uid="{7FDA013E-6A26-1A44-8B42-C9A2AA79AC6A}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{669767C5-F0F8-1D49-B656-AD897C6E149E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
